--- a/worklog/work log.xlsx
+++ b/worklog/work log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>learning jQuery</t>
+  </si>
+  <si>
+    <t>vi editor commands</t>
+  </si>
+  <si>
+    <t>python basics</t>
   </si>
 </sst>
 </file>
@@ -371,7 +377,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -381,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,38 +629,57 @@
       <c r="A32" s="3">
         <v>43106</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43107</v>
+      </c>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43108</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43109</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43110</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
   </sheetData>

--- a/worklog/work log.xlsx
+++ b/worklog/work log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -60,7 +60,13 @@
     <t>vi editor commands</t>
   </si>
   <si>
-    <t>python basics</t>
+    <t>python basics(overview,basic syntax,variables,operators,decision making,loops</t>
+  </si>
+  <si>
+    <t>python basics( number string list tuple dictionary d&amp;t</t>
+  </si>
+  <si>
+    <t>python: functions modules file I/O exceptions,OOP reg</t>
   </si>
 </sst>
 </file>
@@ -377,7 +383,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -387,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,7 +651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43109</v>
       </c>
@@ -653,16 +659,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43110</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43111</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>

--- a/worklog/work log.xlsx
+++ b/worklog/work log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>python: functions modules file I/O exceptions,OOP reg</t>
+  </si>
+  <si>
+    <t>Solved online problems on python</t>
+  </si>
+  <si>
+    <t>Solved hacker rank problems on python</t>
+  </si>
+  <si>
+    <t>started working on django</t>
   </si>
 </sst>
 </file>
@@ -383,7 +392,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -393,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,20 +684,39 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43112</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1">
+        <v>43113</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="A40" s="1">
+        <v>43114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43115</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1">
+        <v>43116</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>

--- a/worklog/work log.xlsx
+++ b/worklog/work log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>started working on django</t>
+  </si>
+  <si>
+    <t xml:space="preserve">working on django polls app </t>
   </si>
 </sst>
 </file>
@@ -392,7 +395,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -403,7 +406,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:B44"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,7 +722,12 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1">
+        <v>43117</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/worklog/work log.xlsx
+++ b/worklog/work log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t xml:space="preserve">working on django polls app </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> working on django polls app(admin panel)</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -403,9 +406,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -729,6 +732,14 @@
         <v>19</v>
       </c>
     </row>
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43118</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/worklog/work log.xlsx
+++ b/worklog/work log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t xml:space="preserve"> working on django polls app(admin panel)</t>
+  </si>
+  <si>
+    <t>worked on django app(blog), Json parsing through python</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -406,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,6 +743,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43119</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/worklog/work log.xlsx
+++ b/worklog/work log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>worked on django app(blog), Json parsing through python</t>
+  </si>
+  <si>
+    <t>django app (blog post app)</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -409,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,6 +754,14 @@
         <v>21</v>
       </c>
     </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43122</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/worklog/work log.xlsx
+++ b/worklog/work log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>django app (blog post app)</t>
+  </si>
+  <si>
+    <t>django , ajax form submission</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,6 +765,14 @@
         <v>22</v>
       </c>
     </row>
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43123</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/worklog/work log.xlsx
+++ b/worklog/work log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>django , ajax form submission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">django, blog post app login sign up </t>
+  </si>
+  <si>
+    <t>django, Flight airfare app</t>
   </si>
 </sst>
 </file>
@@ -407,7 +413,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -415,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,6 +779,22 @@
         <v>23</v>
       </c>
     </row>
+    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43124</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43125</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/worklog/work log.xlsx
+++ b/worklog/work log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>django, Flight airfare app</t>
+  </si>
+  <si>
+    <t>flight booking app ui</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -421,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,6 +798,37 @@
         <v>25</v>
       </c>
     </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43129</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43130</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/worklog/work log.xlsx
+++ b/worklog/work log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>flight booking app ui</t>
+  </si>
+  <si>
+    <t>clinical trial search app</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -424,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,6 +832,22 @@
         <v>26</v>
       </c>
     </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43132</v>
+      </c>
+      <c r="B55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43133</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/worklog/work log.xlsx
+++ b/worklog/work log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -419,7 +419,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,6 +848,24 @@
         <v>27</v>
       </c>
     </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43136</v>
+      </c>
+      <c r="B59" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/worklog/work log.xlsx
+++ b/worklog/work log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -419,7 +419,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,6 +866,22 @@
         <v>27</v>
       </c>
     </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>43137</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>43138</v>
+      </c>
+      <c r="B61" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/worklog/work log.xlsx
+++ b/worklog/work log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -419,7 +419,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,6 +882,14 @@
         <v>27</v>
       </c>
     </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>43139</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/worklog/work log.xlsx
+++ b/worklog/work log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>clinical trial search app</t>
+  </si>
+  <si>
+    <t>clinical trial search app(rest api)</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -427,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,6 +893,22 @@
         <v>27</v>
       </c>
     </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>43140</v>
+      </c>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>43143</v>
+      </c>
+      <c r="B66" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/worklog/work log.xlsx
+++ b/worklog/work log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>clinical trial search app(rest api)</t>
+  </si>
+  <si>
+    <t>ui changes in cts app</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -430,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,6 +912,14 @@
         <v>28</v>
       </c>
     </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43147</v>
+      </c>
+      <c r="B70" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/worklog/work log.xlsx
+++ b/worklog/work log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>ui changes in cts app</t>
+  </si>
+  <si>
+    <t>Linux commands</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -433,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,6 +923,14 @@
         <v>29</v>
       </c>
     </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>43151</v>
+      </c>
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
